--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxf55111\Desktop\Coding\Udemy--Microsoft-excel-from-beginner-to-advanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9D903E-9191-4C4E-BE4F-53187BC6D713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC213A2-EEC9-4E6B-A6C2-0593A54D0E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B400C6CE-912F-479D-B66D-75CCEADA9829}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Monthly Budget</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>COUNT</t>
   </si>
 </sst>
 </file>
@@ -67,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -100,7 +115,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,20 +430,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDABAFD-3A70-4E5B-AB0D-C622F5166382}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -444,8 +459,11 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -453,13 +471,21 @@
         <v>1000</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="D4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" ref="E4:E8" si="0">SUM(B4:D4)</f>
+        <v>2900</v>
+      </c>
+      <c r="F4">
+        <f>E4/$E$9</f>
+        <v>0.57711442786069655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -472,8 +498,16 @@
       <c r="D5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="F5">
+        <f>E5/$E$9</f>
+        <v>6.965174129353234E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -486,8 +520,16 @@
       <c r="D6">
         <v>175</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="F6">
+        <f>E6/$E$9</f>
+        <v>0.1044776119402985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -500,8 +542,16 @@
       <c r="D7">
         <v>350</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>925</v>
+      </c>
+      <c r="F7">
+        <f>E7/$E$9</f>
+        <v>0.18407960199004975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -514,26 +564,125 @@
       <c r="D8">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="F8">
+        <f>E8/$E$9</f>
+        <v>6.4676616915422883E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <f>B4+B5+B6+B7+B8</f>
+        <f t="shared" ref="B9:E9" si="1">SUM(B4:B8)</f>
         <v>1675</v>
       </c>
       <c r="C9">
-        <f>C4+C5+C6+C7+C8</f>
-        <v>1700</v>
+        <f t="shared" si="1"/>
+        <v>1600</v>
       </c>
       <c r="D9">
-        <f>D4+D5+D6+D7+D8</f>
+        <f t="shared" si="1"/>
         <v>1750</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>MIN(B4:B8)</f>
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <f>MIN(C4:C8)</f>
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <f>MIN(D4:D8)</f>
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <f>MIN(E4:E8)</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f>MAX(B4:B8)</f>
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <f>MAX(C4:C8)</f>
+        <v>900</v>
+      </c>
+      <c r="D12">
+        <f>MAX(D4:D8)</f>
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <f>MAX(E4:E8)</f>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(B4:B8)</f>
+        <v>335</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(C4:C8)</f>
+        <v>320</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(D4:D8)</f>
+        <v>350</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(E4:E8)</f>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f>COUNT(B4:B8)</f>
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <f>COUNT(C4:C8)</f>
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f>COUNT(D4:D8)</f>
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f>COUNT(E4:E8)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B11:D14" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxf55111\Desktop\Coding\Udemy--Microsoft-excel-from-beginner-to-advanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC213A2-EEC9-4E6B-A6C2-0593A54D0E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4BD49D-2C10-45F0-9571-C659F3B66761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B400C6CE-912F-479D-B66D-75CCEADA9829}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Monthly Budget" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,10 +81,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00\ [$Kč-405]"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,16 +95,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,18 +153,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="AwesomeStyle" xfId="4" xr:uid="{36D0D656-32A9-46A3-9458-FC70DDDF22F0}"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -131,6 +313,124 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>392045</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB3A8CA-F7DC-2915-1A69-82D874E942B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="190499"/>
+          <a:ext cx="392044" cy="281559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Arrow: Left 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621C243A-4511-AB2F-C12E-B71B3FA79AEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="838200"/>
+          <a:ext cx="762000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,259 +730,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDABAFD-3A70-4E5B-AB0D-C622F5166382}">
-  <dimension ref="A1:F14"/>
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="4" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C4" s="6">
         <v>44927</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D4" s="6">
         <v>44958</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E4" s="6">
         <v>44986</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C5" s="1">
         <v>1000</v>
       </c>
-      <c r="C4">
+      <c r="D5" s="1">
         <v>900</v>
       </c>
-      <c r="D4">
+      <c r="E5" s="1">
         <v>1000</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E8" si="0">SUM(B4:D4)</f>
+      <c r="F5" s="1">
+        <f>SUM(C5:E5)</f>
         <v>2900</v>
       </c>
-      <c r="F4">
-        <f>E4/$E$9</f>
-        <v>0.57711442786069655</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G5" s="3">
+        <f>F5/($F$10+1)</f>
+        <v>0.57699960206923995</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C6" s="2">
         <v>125</v>
       </c>
-      <c r="C5">
+      <c r="D6" s="2">
         <v>125</v>
       </c>
-      <c r="D5">
+      <c r="E6" s="2">
         <v>100</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+      <c r="F6" s="2">
+        <f>SUM(C6:E6)</f>
         <v>350</v>
       </c>
-      <c r="F5">
-        <f>E5/$E$9</f>
-        <v>6.965174129353234E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G6" s="3">
+        <f>F6/($F$10+1)</f>
+        <v>6.9637883008356549E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C7" s="2">
         <v>150</v>
       </c>
-      <c r="C6">
+      <c r="D7" s="2">
         <v>200</v>
       </c>
-      <c r="D6">
+      <c r="E7" s="2">
         <v>175</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
+      <c r="F7" s="2">
+        <f>SUM(C7:E7)</f>
         <v>525</v>
       </c>
-      <c r="F6">
-        <f>E6/$E$9</f>
-        <v>0.1044776119402985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G7" s="3">
+        <f>F7/($F$10+1)</f>
+        <v>0.10445682451253482</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C8" s="2">
         <v>300</v>
       </c>
-      <c r="C7">
+      <c r="D8" s="2">
         <v>275</v>
       </c>
-      <c r="D7">
+      <c r="E8" s="2">
         <v>350</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
+      <c r="F8" s="2">
+        <f>SUM(C8:E8)</f>
         <v>925</v>
       </c>
-      <c r="F7">
-        <f>E7/$E$9</f>
-        <v>0.18407960199004975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G8" s="3">
+        <f>F8/($F$10+1)</f>
+        <v>0.18404297652208515</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C9" s="2">
         <v>100</v>
       </c>
-      <c r="C8">
+      <c r="D9" s="2">
         <v>100</v>
       </c>
-      <c r="D8">
+      <c r="E9" s="2">
         <v>125</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
+      <c r="F9" s="2">
+        <f>SUM(C9:E9)</f>
         <v>325</v>
       </c>
-      <c r="F8">
-        <f>E8/$E$9</f>
-        <v>6.4676616915422883E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G9" s="3">
+        <f>F9/($F$10+1)</f>
+        <v>6.4663748507759647E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <f t="shared" ref="B9:E9" si="1">SUM(B4:B8)</f>
+      <c r="C10" s="2">
+        <f>SUM(C5:C9)</f>
         <v>1675</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
+      <c r="D10" s="2">
+        <f>SUM(D5:D9)</f>
         <v>1600</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
+      <c r="E10" s="2">
+        <f>SUM(E5:E9)</f>
         <v>1750</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
+      <c r="F10" s="2">
+        <f>SUM(F5:F9)</f>
         <v>5025</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="G10" s="3">
+        <f>F10/($F$10+1)</f>
+        <v>0.99980103461997616</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <f>MIN(B4:B8)</f>
+      <c r="C12">
+        <f>MIN(C5:C9)</f>
         <v>100</v>
       </c>
-      <c r="C11">
-        <f>MIN(C4:C8)</f>
+      <c r="D12">
+        <f>MIN(D5:D9)</f>
         <v>100</v>
       </c>
-      <c r="D11">
-        <f>MIN(D4:D8)</f>
+      <c r="E12">
+        <f>MIN(E5:E9)</f>
         <v>100</v>
       </c>
-      <c r="E11">
-        <f>MIN(E4:E8)</f>
+      <c r="F12">
+        <f>MIN(F5:F9)</f>
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <f>MAX(B4:B8)</f>
+      <c r="C13">
+        <f>MAX(C5:C9)</f>
         <v>1000</v>
       </c>
-      <c r="C12">
-        <f>MAX(C4:C8)</f>
+      <c r="D13">
+        <f>MAX(D5:D9)</f>
         <v>900</v>
       </c>
-      <c r="D12">
-        <f>MAX(D4:D8)</f>
+      <c r="E13">
+        <f>MAX(E5:E9)</f>
         <v>1000</v>
       </c>
-      <c r="E12">
-        <f>MAX(E4:E8)</f>
+      <c r="F13">
+        <f>MAX(F5:F9)</f>
         <v>2900</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <f>AVERAGE(B4:B8)</f>
+      <c r="C14">
+        <f>AVERAGE(C5:C9)</f>
         <v>335</v>
       </c>
-      <c r="C13">
-        <f>AVERAGE(C4:C8)</f>
+      <c r="D14">
+        <f>AVERAGE(D5:D9)</f>
         <v>320</v>
       </c>
-      <c r="D13">
-        <f>AVERAGE(D4:D8)</f>
+      <c r="E14">
+        <f>AVERAGE(E5:E9)</f>
         <v>350</v>
       </c>
-      <c r="E13">
-        <f>AVERAGE(E4:E8)</f>
+      <c r="F14">
+        <f>AVERAGE(F5:F9)</f>
         <v>1005</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <f>COUNT(B4:B8)</f>
+      <c r="C15">
+        <f>COUNT(C5:C9)</f>
         <v>5</v>
       </c>
-      <c r="C14">
-        <f>COUNT(C4:C8)</f>
+      <c r="D15">
+        <f>COUNT(D5:D9)</f>
         <v>5</v>
       </c>
-      <c r="D14">
-        <f>COUNT(D4:D8)</f>
+      <c r="E15">
+        <f>COUNT(E5:E9)</f>
         <v>5</v>
       </c>
-      <c r="E14">
-        <f>COUNT(E4:E8)</f>
+      <c r="F15">
+        <f>COUNT(F5:F9)</f>
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:E9">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+      <formula>250</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B11:D14" formulaRange="1"/>
+    <ignoredError sqref="C10:E15" formulaRange="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxf55111\Desktop\Coding\Udemy--Microsoft-excel-from-beginner-to-advanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4BD49D-2C10-45F0-9571-C659F3B66761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC32A631-3110-4561-932F-2F841CC31E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B400C6CE-912F-479D-B66D-75CCEADA9829}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Budget" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart Montly Budget" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +86,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00\ [$Kč-405]"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$Kč-405]"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -172,8 +173,8 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -191,107 +192,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -313,6 +214,4810 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Budget'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jan-2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4311-4DC5-BC17-861D8DA42270}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4311-4DC5-BC17-861D8DA42270}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4311-4DC5-BC17-861D8DA42270}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4311-4DC5-BC17-861D8DA42270}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4311-4DC5-BC17-861D8DA42270}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="75000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Monthly Budget'!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Credit Cards</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monthly Budget'!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ [$Kč-405]</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-4311-4DC5-BC17-861D8DA42270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Budget'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Monthly Budget'!$C$4:$E$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Monthly Budget'!$C$4,'Monthly Budget'!$E$4)</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Monthly Budget'!$C$5:$E$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Monthly Budget'!$C$5,'Monthly Budget'!$E$5)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ [$Kč-405]</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-598F-448C-829E-03A958FCD372}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Budget'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Monthly Budget'!$C$4:$E$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Monthly Budget'!$C$4,'Monthly Budget'!$E$4)</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Monthly Budget'!$C$6:$E$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Monthly Budget'!$C$6,'Monthly Budget'!$E$6)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ [$Kč-405]</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-598F-448C-829E-03A958FCD372}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Budget'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Credit Cards</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Monthly Budget'!$C$4:$E$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Monthly Budget'!$C$4,'Monthly Budget'!$E$4)</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Monthly Budget'!$C$7:$E$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Monthly Budget'!$C$7,'Monthly Budget'!$E$7)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ [$Kč-405]</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-598F-448C-829E-03A958FCD372}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Budget'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Monthly Budget'!$C$4:$E$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Monthly Budget'!$C$4,'Monthly Budget'!$E$4)</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Monthly Budget'!$C$8:$E$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Monthly Budget'!$C$8,'Monthly Budget'!$E$8)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ [$Kč-405]</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-598F-448C-829E-03A958FCD372}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Budget'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Monthly Budget'!$C$4:$E$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Monthly Budget'!$C$4,'Monthly Budget'!$E$4)</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Monthly Budget'!$C$9:$E$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Monthly Budget'!$C$9,'Monthly Budget'!$E$9)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ [$Kč-405]</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-598F-448C-829E-03A958FCD372}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="715743295"/>
+        <c:axId val="707168975"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="715743295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="707168975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="707168975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00\ [$Kč-405]" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="715743295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BA40FB62-9E4B-49DA-B6DD-BAC2C3D55206}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{3C21166F-02FF-4B98-AFD9-908682EE5EA9}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9" loCatId="process" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/3d5" qsCatId="3D" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B4A6F53B-0754-42D3-93C1-7A440AD56ABE}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Make money</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B0A40D10-110D-4626-B13A-AE8E1F979B0E}" type="parTrans" cxnId="{7CE1607F-91C4-4E26-AE98-EF6E21E6F795}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1DFD403C-7568-4EA4-ABE6-2EAEC246AC14}" type="sibTrans" cxnId="{7CE1607F-91C4-4E26-AE98-EF6E21E6F795}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CEDEA625-743E-472F-918E-7A0A807FAE5C}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Spend money</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9D087340-3381-47B6-B77E-7DB25E8B76ED}" type="parTrans" cxnId="{D0C9F483-A166-436C-B9E6-93CF7667E2E8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C56EF741-93E1-4BF7-A17F-B89741B58A59}" type="sibTrans" cxnId="{D0C9F483-A166-436C-B9E6-93CF7667E2E8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{69629029-7BF0-4F28-B0D3-EC1CEC99C91A}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Track money</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A5C95066-C521-4E04-A491-4D0E1C631E86}" type="parTrans" cxnId="{40A80305-3900-48DE-B700-777B3976D020}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D96F4D30-7CAD-439A-BC51-71589CA0A366}" type="sibTrans" cxnId="{40A80305-3900-48DE-B700-777B3976D020}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A9808E2C-0EC8-4FF7-A897-5D2D3A46BC2C}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Work</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{927E78FB-F487-4E4C-BE08-5F2844CE83B8}" type="parTrans" cxnId="{C8D72D97-7DDD-4FEF-B75B-0066485035D7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D915B3FC-8A50-49C2-9BBA-1AF1DE02EAE5}" type="sibTrans" cxnId="{C8D72D97-7DDD-4FEF-B75B-0066485035D7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C00FD668-D4AA-46EC-B59F-A1BF0A3E7381}" type="pres">
+      <dgm:prSet presAssocID="{3C21166F-02FF-4B98-AFD9-908682EE5EA9}" presName="CompostProcess" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B76BDF8D-830E-4720-8EAE-D6DA638FF302}" type="pres">
+      <dgm:prSet presAssocID="{3C21166F-02FF-4B98-AFD9-908682EE5EA9}" presName="arrow" presStyleLbl="bgShp" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8BBEB283-070C-44F4-A5F2-C7538786F91F}" type="pres">
+      <dgm:prSet presAssocID="{3C21166F-02FF-4B98-AFD9-908682EE5EA9}" presName="linearProcess" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1307AC4A-C39B-4239-8E2B-C4AB0F955D7D}" type="pres">
+      <dgm:prSet presAssocID="{B4A6F53B-0754-42D3-93C1-7A440AD56ABE}" presName="textNode" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7BC7C703-B598-4606-8F93-9C1E549DE059}" type="pres">
+      <dgm:prSet presAssocID="{1DFD403C-7568-4EA4-ABE6-2EAEC246AC14}" presName="sibTrans" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F65CA570-B86B-4B6C-BFAA-484384BBC4CC}" type="pres">
+      <dgm:prSet presAssocID="{CEDEA625-743E-472F-918E-7A0A807FAE5C}" presName="textNode" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7488B834-7745-40D0-8968-EE307657654D}" type="pres">
+      <dgm:prSet presAssocID="{C56EF741-93E1-4BF7-A17F-B89741B58A59}" presName="sibTrans" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{36B4734E-0C96-4CC9-848A-E6E7A4A1CBCC}" type="pres">
+      <dgm:prSet presAssocID="{69629029-7BF0-4F28-B0D3-EC1CEC99C91A}" presName="textNode" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{40A80305-3900-48DE-B700-777B3976D020}" srcId="{3C21166F-02FF-4B98-AFD9-908682EE5EA9}" destId="{69629029-7BF0-4F28-B0D3-EC1CEC99C91A}" srcOrd="2" destOrd="0" parTransId="{A5C95066-C521-4E04-A491-4D0E1C631E86}" sibTransId="{D96F4D30-7CAD-439A-BC51-71589CA0A366}"/>
+    <dgm:cxn modelId="{025C140D-75F6-4549-B21E-4C45C98D531E}" type="presOf" srcId="{69629029-7BF0-4F28-B0D3-EC1CEC99C91A}" destId="{36B4734E-0C96-4CC9-848A-E6E7A4A1CBCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{DB63976F-7EA8-4205-A5E6-810FF71BF151}" type="presOf" srcId="{CEDEA625-743E-472F-918E-7A0A807FAE5C}" destId="{F65CA570-B86B-4B6C-BFAA-484384BBC4CC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{7CE1607F-91C4-4E26-AE98-EF6E21E6F795}" srcId="{3C21166F-02FF-4B98-AFD9-908682EE5EA9}" destId="{B4A6F53B-0754-42D3-93C1-7A440AD56ABE}" srcOrd="0" destOrd="0" parTransId="{B0A40D10-110D-4626-B13A-AE8E1F979B0E}" sibTransId="{1DFD403C-7568-4EA4-ABE6-2EAEC246AC14}"/>
+    <dgm:cxn modelId="{D0C9F483-A166-436C-B9E6-93CF7667E2E8}" srcId="{3C21166F-02FF-4B98-AFD9-908682EE5EA9}" destId="{CEDEA625-743E-472F-918E-7A0A807FAE5C}" srcOrd="1" destOrd="0" parTransId="{9D087340-3381-47B6-B77E-7DB25E8B76ED}" sibTransId="{C56EF741-93E1-4BF7-A17F-B89741B58A59}"/>
+    <dgm:cxn modelId="{FB89798B-CF3B-4752-B092-EA87B75F06E1}" type="presOf" srcId="{B4A6F53B-0754-42D3-93C1-7A440AD56ABE}" destId="{1307AC4A-C39B-4239-8E2B-C4AB0F955D7D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{C8D72D97-7DDD-4FEF-B75B-0066485035D7}" srcId="{B4A6F53B-0754-42D3-93C1-7A440AD56ABE}" destId="{A9808E2C-0EC8-4FF7-A897-5D2D3A46BC2C}" srcOrd="0" destOrd="0" parTransId="{927E78FB-F487-4E4C-BE08-5F2844CE83B8}" sibTransId="{D915B3FC-8A50-49C2-9BBA-1AF1DE02EAE5}"/>
+    <dgm:cxn modelId="{03B790B0-096A-4460-8FFE-D4B7FA4536B4}" type="presOf" srcId="{3C21166F-02FF-4B98-AFD9-908682EE5EA9}" destId="{C00FD668-D4AA-46EC-B59F-A1BF0A3E7381}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{260255F4-170B-4507-A795-5190D7BDA1E5}" type="presOf" srcId="{A9808E2C-0EC8-4FF7-A897-5D2D3A46BC2C}" destId="{1307AC4A-C39B-4239-8E2B-C4AB0F955D7D}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{46B3F599-A1B9-4234-B50F-F53AA0507FBF}" type="presParOf" srcId="{C00FD668-D4AA-46EC-B59F-A1BF0A3E7381}" destId="{B76BDF8D-830E-4720-8EAE-D6DA638FF302}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{2576906E-B6A9-4297-B4C7-69E54FE4F0B7}" type="presParOf" srcId="{C00FD668-D4AA-46EC-B59F-A1BF0A3E7381}" destId="{8BBEB283-070C-44F4-A5F2-C7538786F91F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{E48CC8A2-BB57-42CE-88A7-876FF78CEE56}" type="presParOf" srcId="{8BBEB283-070C-44F4-A5F2-C7538786F91F}" destId="{1307AC4A-C39B-4239-8E2B-C4AB0F955D7D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{5538E313-19F1-46AC-90D6-EEF72278E33E}" type="presParOf" srcId="{8BBEB283-070C-44F4-A5F2-C7538786F91F}" destId="{7BC7C703-B598-4606-8F93-9C1E549DE059}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{F494445E-3981-46C0-B097-4FFCBD9E0B3D}" type="presParOf" srcId="{8BBEB283-070C-44F4-A5F2-C7538786F91F}" destId="{F65CA570-B86B-4B6C-BFAA-484384BBC4CC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{E4E88909-A4FA-47D2-AD96-94C2D31547D7}" type="presParOf" srcId="{8BBEB283-070C-44F4-A5F2-C7538786F91F}" destId="{7488B834-7745-40D0-8968-EE307657654D}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{48CE1996-BECA-43CC-ACAC-23CA0C76A339}" type="presParOf" srcId="{8BBEB283-070C-44F4-A5F2-C7538786F91F}" destId="{36B4734E-0C96-4CC9-848A-E6E7A4A1CBCC}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId8" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{B76BDF8D-830E-4720-8EAE-D6DA638FF302}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="687330" y="0"/>
+          <a:ext cx="7789747" cy="5351797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d z="-400500" extrusionH="63500" contourW="12700" prstMaterial="matte">
+          <a:contourClr>
+            <a:schemeClr val="lt1">
+              <a:tint val="50000"/>
+            </a:schemeClr>
+          </a:contourClr>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{1307AC4A-C39B-4239-8E2B-C4AB0F955D7D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="202261" y="1605539"/>
+          <a:ext cx="2749322" cy="2140718"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+          <a:contourClr>
+            <a:schemeClr val="lt1"/>
+          </a:contourClr>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="140970" tIns="140970" rIns="140970" bIns="140970" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="1644650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3700" kern="1200"/>
+            <a:t>Make money</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" lvl="1" indent="-285750" algn="l" defTabSz="1289050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2900" kern="1200"/>
+            <a:t>Work</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="306762" y="1710040"/>
+        <a:ext cx="2540320" cy="1931716"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F65CA570-B86B-4B6C-BFAA-484384BBC4CC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3207543" y="1605539"/>
+          <a:ext cx="2749322" cy="2140718"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+          <a:contourClr>
+            <a:schemeClr val="lt1"/>
+          </a:contourClr>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="140970" tIns="140970" rIns="140970" bIns="140970" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1644650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3700" kern="1200"/>
+            <a:t>Spend money</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3312044" y="1710040"/>
+        <a:ext cx="2540320" cy="1931716"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{36B4734E-0C96-4CC9-848A-E6E7A4A1CBCC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6212824" y="1605539"/>
+          <a:ext cx="2749322" cy="2140718"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+          <a:contourClr>
+            <a:schemeClr val="lt1"/>
+          </a:contourClr>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="140970" tIns="140970" rIns="140970" bIns="140970" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1644650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3700" kern="1200"/>
+            <a:t>Track money</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6317325" y="1710040"/>
+        <a:ext cx="2540320" cy="1931716"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="process" pri="5000"/>
+    <dgm:cat type="convert" pri="13000"/>
+  </dgm:catLst>
+  <dgm:sampData useDef="1">
+    <dgm:dataModel>
+      <dgm:ptLst/>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="4"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="CompostProcess">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:alg type="composite">
+      <dgm:param type="horzAlign" val="ctr"/>
+      <dgm:param type="vertAlign" val="mid"/>
+    </dgm:alg>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="w" for="ch" forName="arrow" refType="w" fact="0.85"/>
+      <dgm:constr type="h" for="ch" forName="arrow" refType="h"/>
+      <dgm:constr type="ctrX" for="ch" forName="arrow" refType="w" fact="0.5"/>
+      <dgm:constr type="ctrY" for="ch" forName="arrow" refType="h" fact="0.5"/>
+      <dgm:constr type="w" for="ch" forName="linearProcess" refType="w"/>
+      <dgm:constr type="h" for="ch" forName="linearProcess" refType="h" fact="0.4"/>
+      <dgm:constr type="ctrX" for="ch" forName="linearProcess" refType="w" fact="0.5"/>
+      <dgm:constr type="ctrY" for="ch" forName="linearProcess" refType="h" fact="0.5"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:layoutNode name="arrow" styleLbl="bgShp">
+      <dgm:alg type="sp"/>
+      <dgm:choose name="Name0">
+        <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rightArrow" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+        </dgm:if>
+        <dgm:else name="Name2">
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="leftArrow" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+        </dgm:else>
+      </dgm:choose>
+      <dgm:presOf/>
+      <dgm:constrLst/>
+      <dgm:ruleLst/>
+    </dgm:layoutNode>
+    <dgm:layoutNode name="linearProcess">
+      <dgm:choose name="Name3">
+        <dgm:if name="Name4" func="var" arg="dir" op="equ" val="norm">
+          <dgm:alg type="lin"/>
+        </dgm:if>
+        <dgm:else name="Name5">
+          <dgm:alg type="lin">
+            <dgm:param type="linDir" val="fromR"/>
+          </dgm:alg>
+        </dgm:else>
+      </dgm:choose>
+      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+        <dgm:adjLst/>
+      </dgm:shape>
+      <dgm:presOf/>
+      <dgm:constrLst>
+        <dgm:constr type="userA" for="ch" ptType="node" refType="w"/>
+        <dgm:constr type="h" for="ch" ptType="node" refType="h"/>
+        <dgm:constr type="w" for="ch" ptType="node" op="equ"/>
+        <dgm:constr type="w" for="ch" forName="sibTrans" refType="w" fact="0.05"/>
+        <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+      </dgm:constrLst>
+      <dgm:ruleLst/>
+      <dgm:forEach name="Name6" axis="ch" ptType="node">
+        <dgm:layoutNode name="textNode" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="userA"/>
+            <dgm:constr type="w" refType="userA" fact="0.3"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="w" val="NaN" fact="1" max="NaN"/>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:forEach name="Name7" axis="followSib" ptType="sibTrans" cnt="1">
+          <dgm:layoutNode name="sibTrans">
+            <dgm:alg type="sp"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+          </dgm:layoutNode>
+        </dgm:forEach>
+      </dgm:forEach>
+    </dgm:layoutNode>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/3d5">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="3D" pri="11500"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="isometricOffAxis2Left" zoom="95000"/>
+    <a:lightRig rig="flat" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-381000" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-52400" extrusionH="181000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="dk1">
+          <a:tint val="20000"/>
+        </a:schemeClr>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-381000" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="dk1">
+          <a:tint val="20000"/>
+        </a:schemeClr>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="127000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="52400" extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="52400" extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="60000" prstMaterial="flat">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="60000" prstMaterial="flat">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-60000" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-60000" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-400500" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="12700" prstMaterial="flat">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="12700" prstMaterial="flat">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-63500" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="dk1">
+          <a:tint val="20000"/>
+        </a:schemeClr>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-400500" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-400500" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1">
+          <a:tint val="50000"/>
+        </a:schemeClr>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="381000" contourW="38100" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1"/>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-400500" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="57150" extrusionH="63500" contourW="12700" prstMaterial="matte">
+      <a:contourClr>
+        <a:schemeClr val="lt1">
+          <a:tint val="50000"/>
+        </a:schemeClr>
+      </a:contourClr>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,11 +5051,20 @@
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId3"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -373,15 +5087,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -396,8 +5110,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="838200"/>
-          <a:ext cx="762000" cy="266700"/>
+          <a:off x="5695950" y="685800"/>
+          <a:ext cx="1047750" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -405,15 +5119,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent6">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -430,6 +5144,111 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>155802</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>16871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>168018</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6051E11-F846-BB03-F5F1-C6888A93C0A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId4" r:lo="rId5" r:qs="rId6" r:cs="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>300818</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>227919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1FB616A-33C1-04A1-75E9-3BCA07E20823}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9299222" cy="6074833"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759096F8-7097-6C3C-F186-1281430519D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -735,8 +5554,8 @@
   </sheetPr>
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +5612,7 @@
         <v>2900</v>
       </c>
       <c r="G5" s="3">
-        <f>F5/($F$10+1)</f>
+        <f t="shared" ref="G5:G10" si="0">F5/($F$10+1)</f>
         <v>0.57699960206923995</v>
       </c>
     </row>
@@ -815,7 +5634,7 @@
         <v>350</v>
       </c>
       <c r="G6" s="3">
-        <f>F6/($F$10+1)</f>
+        <f t="shared" si="0"/>
         <v>6.9637883008356549E-2</v>
       </c>
     </row>
@@ -837,7 +5656,7 @@
         <v>525</v>
       </c>
       <c r="G7" s="3">
-        <f>F7/($F$10+1)</f>
+        <f t="shared" si="0"/>
         <v>0.10445682451253482</v>
       </c>
     </row>
@@ -859,7 +5678,7 @@
         <v>925</v>
       </c>
       <c r="G8" s="3">
-        <f>F8/($F$10+1)</f>
+        <f t="shared" si="0"/>
         <v>0.18404297652208515</v>
       </c>
     </row>
@@ -881,7 +5700,7 @@
         <v>325</v>
       </c>
       <c r="G9" s="3">
-        <f>F9/($F$10+1)</f>
+        <f t="shared" si="0"/>
         <v>6.4663748507759647E-2</v>
       </c>
     </row>
@@ -906,7 +5725,7 @@
         <v>5025</v>
       </c>
       <c r="G10" s="3">
-        <f>F10/($F$10+1)</f>
+        <f t="shared" si="0"/>
         <v>0.99980103461997616</v>
       </c>
     </row>
@@ -999,12 +5818,16 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E9">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C2023 Monthly Budget&amp;RJan Ranostaj</oddHeader>
+    <oddFooter>&amp;C&amp;Z&amp;F&amp;R&amp;P</oddFooter>
+  </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="C10:E15" formulaRange="1"/>
   </ignoredErrors>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxf55111\Desktop\Coding\Udemy--Microsoft-excel-from-beginner-to-advanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC32A631-3110-4561-932F-2F841CC31E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC95916-A206-4526-AD7D-84BAC133A018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B400C6CE-912F-479D-B66D-75CCEADA9829}"/>
+    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="17640" xr2:uid="{B400C6CE-912F-479D-B66D-75CCEADA9829}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Budget" sheetId="1" r:id="rId1"/>
@@ -3444,8 +3444,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="687330" y="0"/>
-          <a:ext cx="7789747" cy="5351797"/>
+          <a:off x="637324" y="0"/>
+          <a:ext cx="7223010" cy="5351797"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3491,8 +3491,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="202261" y="1605539"/>
-          <a:ext cx="2749322" cy="2140718"/>
+          <a:off x="203728" y="1605539"/>
+          <a:ext cx="2549297" cy="2140718"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3572,8 +3572,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="306762" y="1710040"/>
-        <a:ext cx="2540320" cy="1931716"/>
+        <a:off x="308229" y="1710040"/>
+        <a:ext cx="2340295" cy="1931716"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F65CA570-B86B-4B6C-BFAA-484384BBC4CC}">
@@ -3583,8 +3583,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3207543" y="1605539"/>
-          <a:ext cx="2749322" cy="2140718"/>
+          <a:off x="2974180" y="1605539"/>
+          <a:ext cx="2549297" cy="2140718"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3646,8 +3646,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3312044" y="1710040"/>
-        <a:ext cx="2540320" cy="1931716"/>
+        <a:off x="3078681" y="1710040"/>
+        <a:ext cx="2340295" cy="1931716"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{36B4734E-0C96-4CC9-848A-E6E7A4A1CBCC}">
@@ -3657,8 +3657,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6212824" y="1605539"/>
-          <a:ext cx="2749322" cy="2140718"/>
+          <a:off x="5744633" y="1605539"/>
+          <a:ext cx="2549297" cy="2140718"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3720,8 +3720,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6317325" y="1710040"/>
-        <a:ext cx="2540320" cy="1931716"/>
+        <a:off x="5849134" y="1710040"/>
+        <a:ext cx="2340295" cy="1931716"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -5555,7 +5555,7 @@
   <dimension ref="B2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
